--- a/Week 3/fd1d.xlsx
+++ b/Week 3/fd1d.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saxouser\source\repos\CompFin_private\Week 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saxouser\source\repos\compFin 3\Week 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>num t</t>
   </si>
@@ -79,6 +79,9 @@
   <si>
     <t>fd1d</t>
   </si>
+  <si>
+    <t>strike</t>
+  </si>
 </sst>
 </file>
 
@@ -130,6 +133,964 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$22:$L$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>8.5337804477576704E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8230416160677218E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0081299345909739E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9816372301885701E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.130794869721957E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7782672997708121E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7557043356727436E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2307143730523728E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.4463499265006246E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7517394631636877E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4641818918544383E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1806777329068075E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2189922332748182E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.704893929268008E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.8008987901761716E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.7085631948411102E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3664033382994725E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8921139453566105E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5714200238970985E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4191406678611105E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.4311309759639712E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.5703548045763898E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.7516802681097263E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.8319491366791658E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.6183848692509668E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.9146378017318284E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.6183848692509696E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.8319491366791685E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.7516802681097277E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.5703548045763912E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.4311309759639719E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.4191406678611112E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.5714200238970999E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.8921139453566126E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.3664033382994743E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.7085631948411223E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.8008987901761794E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.7048939292680132E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.2189922332748217E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.1806777329068097E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.4641818918544403E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.7517394631637007E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.4463499265006343E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.2307143730523794E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.7557043356727485E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.7782672997708151E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.1307948697219589E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.9816372301885823E-5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.0081299345909806E-5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.8230416160677245E-5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.5337804477576812E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD93-4B88-BFA9-79D78863D695}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="434228480"/>
+        <c:axId val="434222576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="434228480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434222576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="434222576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434228480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>431320</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>159587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>34505</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>4312</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -395,15 +1356,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H72"/>
+  <dimension ref="B2:L72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -411,7 +1375,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -419,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>16</v>
       </c>
@@ -427,15 +1391,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -443,7 +1407,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -451,7 +1415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -459,7 +1423,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -468,7 +1432,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -477,7 +1441,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -486,47 +1450,89 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>1</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>2</v>
       </c>
       <c r="C17">
         <v>-1</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>4</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <f ca="1">SUMPRODUCT(L22:L72,F22:F72)</f>
+        <v>2.194589905364305E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>5</v>
       </c>
@@ -545,8 +1551,11 @@
       <c r="H21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22">
         <f ca="1">C11</f>
         <v>-0.25</v>
@@ -557,22 +1566,34 @@
       </c>
       <c r="D22">
         <f ca="1">$C$5</f>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <f ca="1">$C$6</f>
         <v>0.1</v>
       </c>
       <c r="F22">
-        <f ca="1">MAX(0,B22)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" t="e">
+        <f ca="1">MAX(0,B22-$F$15)</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
         <f t="array" aca="1" ref="H22:H72" ca="1">_xll.xFd1d(C2,B22:B72,C22:C72,D22:D72,E22:E72,F22:F72,C15:C19)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H22,B22+$C$5*$C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f ca="1">IF(ABS(B22-$C$3)&lt;0.0000000001,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="array" aca="1" ref="L22:L72" ca="1">_xll.xFd1d($C$2,B22:B72,C22:C72,D22:D72,E22:E72,K22:K72,L15:L19)</f>
+        <v>8.5337804477576704E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23">
         <f t="shared" ref="B23:B54" ca="1" si="0">B22+$C$13</f>
         <v>-0.24</v>
@@ -583,22 +1604,34 @@
       </c>
       <c r="D23">
         <f t="shared" ref="D23:D72" ca="1" si="2">$C$5</f>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <f t="shared" ref="E23:E72" ca="1" si="3">$C$6</f>
         <v>0.1</v>
       </c>
       <c r="F23">
-        <f t="shared" ref="F23:F72" ca="1" si="4">MAX(0,B23)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F23:F72" ca="1" si="4">MAX(0,B23-$F$15)</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f ca="1"/>
+        <v>1.1027408727919107E-6</v>
+      </c>
+      <c r="I23">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H23,B23+$C$5*$C$2)</f>
+        <v>0.12466092895707037</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23:K72" ca="1" si="5">IF(ABS(B23-$C$3)&lt;0.0000000001,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f ca="1"/>
+        <v>1.8230416160677218E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
         <v>-0.22999999999999998</v>
@@ -609,7 +1642,7 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="3"/>
@@ -619,12 +1652,24 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="H24" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <f ca="1"/>
+        <v>2.4388648806731948E-6</v>
+      </c>
+      <c r="I24">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H24,B24+$C$5*$C$2)</f>
+        <v>0.12504834195154707</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f ca="1"/>
+        <v>4.0081299345909739E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
         <v>-0.21999999999999997</v>
@@ -635,7 +1680,7 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="3"/>
@@ -645,12 +1690,24 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="H25" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <f ca="1"/>
+        <v>4.2874909638275448E-6</v>
+      </c>
+      <c r="I25">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H25,B25+$C$5*$C$2)</f>
+        <v>0.12435715747594886</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f ca="1"/>
+        <v>6.9816372301885701E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
         <v>-0.20999999999999996</v>
@@ -661,7 +1718,7 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="3"/>
@@ -671,12 +1728,24 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="H26" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <f ca="1"/>
+        <v>7.0271657384069996E-6</v>
+      </c>
+      <c r="I26">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H26,B26+$C$5*$C$2)</f>
+        <v>0.12318768940107784</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f ca="1"/>
+        <v>1.130794869721957E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
         <v>-0.19999999999999996</v>
@@ -687,7 +1756,7 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="3"/>
@@ -697,12 +1766,24 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="H27" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <f ca="1"/>
+        <v>1.1206578102661608E-5</v>
+      </c>
+      <c r="I27">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H27,B27+$C$5*$C$2)</f>
+        <v>0.1218166328085446</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f ca="1"/>
+        <v>1.7782672997708121E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
         <v>-0.18999999999999995</v>
@@ -713,7 +1794,7 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="3"/>
@@ -723,12 +1804,24 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="H28" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <f ca="1"/>
+        <v>1.7643665305011956E-5</v>
+      </c>
+      <c r="I28">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H28,B28+$C$5*$C$2)</f>
+        <v>0.12035892890371561</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f ca="1"/>
+        <v>2.7557043356727436E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
         <v>-0.17999999999999994</v>
@@ -739,7 +1832,7 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="3"/>
@@ -749,12 +1842,24 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="H29" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <f ca="1"/>
+        <v>2.7568118786751222E-5</v>
+      </c>
+      <c r="I29">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H29,B29+$C$5*$C$2)</f>
+        <v>0.11886027165394604</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f ca="1"/>
+        <v>4.2307143730523728E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
         <v>-0.16999999999999993</v>
@@ -765,7 +1870,7 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="3"/>
@@ -775,12 +1880,24 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="H30" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <f ca="1"/>
+        <v>4.2827447749185176E-5</v>
+      </c>
+      <c r="I30">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H30,B30+$C$5*$C$2)</f>
+        <v>0.11733988919948904</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f ca="1"/>
+        <v>6.4463499265006246E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
         <v>-0.15999999999999992</v>
@@ -791,7 +1908,7 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="3"/>
@@ -801,12 +1918,24 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="H31" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <f ca="1"/>
+        <v>6.6183538974171378E-5</v>
+      </c>
+      <c r="I31">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H31,B31+$C$5*$C$2)</f>
+        <v>0.11580666891873788</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f ca="1"/>
+        <v>9.7517394631636877E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
         <v>-0.14999999999999991</v>
@@ -817,7 +1946,7 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="3"/>
@@ -827,12 +1956,24 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="H32" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <f ca="1"/>
+        <v>1.0173498823268137E-4</v>
+      </c>
+      <c r="I32">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H32,B32+$C$5*$C$2)</f>
+        <v>0.11426561636067781</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f ca="1"/>
+        <v>1.4641818918544383E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
         <v>-0.1399999999999999</v>
@@ -843,7 +1984,7 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="3"/>
@@ -853,12 +1994,24 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="H33" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <f ca="1"/>
+        <v>1.555098527849443E-4</v>
+      </c>
+      <c r="I33">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H33,B33+$C$5*$C$2)</f>
+        <v>0.1127205724672858</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f ca="1"/>
+        <v>2.1806777329068075E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
         <v>-0.12999999999999989</v>
@@ -869,7 +2022,7 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="3"/>
@@ -879,12 +2032,24 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="H34" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <f ca="1"/>
+        <v>2.3628251995480988E-4</v>
+      </c>
+      <c r="I34">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H34,B34+$C$5*$C$2)</f>
+        <v>0.11117545804362802</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f ca="1"/>
+        <v>3.2189922332748182E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
         <v>-0.1199999999999999</v>
@@ -895,7 +2060,7 @@
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="3"/>
@@ -905,12 +2070,24 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="H35" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <f ca="1"/>
+        <v>3.5667427945950531E-4</v>
+      </c>
+      <c r="I35">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H35,B35+$C$5*$C$2)</f>
+        <v>0.10963495946494944</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f ca="1"/>
+        <v>4.704893929268008E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
         <v>-0.1099999999999999</v>
@@ -921,7 +2098,7 @@
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="3"/>
@@ -931,12 +2108,24 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="H36" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <f ca="1"/>
+        <v>5.345947936109505E-4</v>
+      </c>
+      <c r="I36">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H36,B36+$C$5*$C$2)</f>
+        <v>0.10810504000321482</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f ca="1"/>
+        <v>6.8008987901761716E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37">
         <f t="shared" ca="1" si="0"/>
         <v>-9.9999999999999908E-2</v>
@@ -947,7 +2136,7 @@
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="3"/>
@@ -957,12 +2146,24 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="H37" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <f ca="1"/>
+        <v>7.9506248894065069E-4</v>
+      </c>
+      <c r="I37">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H37,B37+$C$5*$C$2)</f>
+        <v>0.10659345121363135</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f ca="1"/>
+        <v>9.7085631948411102E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38">
         <f t="shared" ca="1" si="0"/>
         <v>-8.9999999999999913E-2</v>
@@ -973,7 +2174,7 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="3"/>
@@ -983,12 +2184,24 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="H38" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <f ca="1"/>
+        <v>1.1723930879742625E-3</v>
+      </c>
+      <c r="I38">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H38,B38+$C$5*$C$2)</f>
+        <v>0.1051103363327586</v>
+      </c>
+      <c r="K38">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f ca="1"/>
+        <v>1.3664033382994725E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39">
         <f t="shared" ca="1" si="0"/>
         <v>-7.9999999999999918E-2</v>
@@ -999,7 +2212,7 @@
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="3"/>
@@ -1009,12 +2222,24 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="H39" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <f ca="1"/>
+        <v>1.7126495025734634E-3</v>
+      </c>
+      <c r="I39">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H39,B39+$C$5*$C$2)</f>
+        <v>0.10366898426455007</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f ca="1"/>
+        <v>1.8921139453566105E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40">
         <f t="shared" ca="1" si="0"/>
         <v>-6.9999999999999923E-2</v>
@@ -1025,7 +2250,7 @@
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="3"/>
@@ -1035,12 +2260,24 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="H40" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <f ca="1"/>
+        <v>2.4760825858384451E-3</v>
+      </c>
+      <c r="I40">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H40,B40+$C$5*$C$2)</f>
+        <v>0.10228677140945783</v>
+      </c>
+      <c r="K40">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f ca="1"/>
+        <v>2.5714200238970985E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41">
         <f t="shared" ca="1" si="0"/>
         <v>-5.9999999999999921E-2</v>
@@ -1051,7 +2288,7 @@
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="3"/>
@@ -1061,12 +2298,24 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="H41" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <f ca="1"/>
+        <v>3.5390436854641433E-3</v>
+      </c>
+      <c r="I41">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H41,B41+$C$5*$C$2)</f>
+        <v>0.10098629202051916</v>
+      </c>
+      <c r="K41">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f ca="1"/>
+        <v>3.4191406678611105E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42">
         <f t="shared" ca="1" si="0"/>
         <v>-4.999999999999992E-2</v>
@@ -1077,7 +2326,7 @@
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="3"/>
@@ -1087,12 +2336,24 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="H42" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <f ca="1"/>
+        <v>4.9945183561587976E-3</v>
+      </c>
+      <c r="I42">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H42,B42+$C$5*$C$2)</f>
+        <v>9.9796589118515605E-2</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f ca="1"/>
+        <v>4.4311309759639712E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43">
         <f t="shared" ca="1" si="0"/>
         <v>-3.9999999999999918E-2</v>
@@ -1103,7 +2364,7 @@
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="3"/>
@@ -1113,12 +2374,24 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="H43" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <f ca="1"/>
+        <v>6.9500673091214974E-3</v>
+      </c>
+      <c r="I43">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H43,B43+$C$5*$C$2)</f>
+        <v>9.8754193084558461E-2</v>
+      </c>
+      <c r="K43">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f ca="1"/>
+        <v>5.5703548045763898E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44">
         <f t="shared" ca="1" si="0"/>
         <v>-2.9999999999999916E-2</v>
@@ -1129,7 +2402,7 @@
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="3"/>
@@ -1139,12 +2412,24 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="H44" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <f ca="1"/>
+        <v>9.5217180116470065E-3</v>
+      </c>
+      <c r="I44">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H44,B44+$C$5*$C$2)</f>
+        <v>9.7903249977761286E-2</v>
+      </c>
+      <c r="K44">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f ca="1"/>
+        <v>6.7516802681097263E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45">
         <f t="shared" ca="1" si="0"/>
         <v>-1.9999999999999914E-2</v>
@@ -1155,7 +2440,7 @@
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="3"/>
@@ -1165,12 +2450,24 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="H45" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <f ca="1"/>
+        <v>1.282255018201298E-2</v>
+      </c>
+      <c r="I45">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H45,B45+$C$5*$C$2)</f>
+        <v>9.7293271710420071E-2</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f ca="1"/>
+        <v>7.8319491366791658E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46">
         <f t="shared" ca="1" si="0"/>
         <v>-9.9999999999999135E-3</v>
@@ -1181,7 +2478,7 @@
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="3"/>
@@ -1191,12 +2488,24 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="H46" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <f ca="1"/>
+        <v>1.6945899051348134E-2</v>
+      </c>
+      <c r="I46">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H46,B46+$C$5*$C$2)</f>
+        <v>9.6972123693243095E-2</v>
+      </c>
+      <c r="K46">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <f ca="1"/>
+        <v>8.6183848692509668E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47">
         <f t="shared" ca="1" si="0"/>
         <v>8.6736173798840355E-17</v>
@@ -1207,7 +2516,7 @@
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="3"/>
@@ -1215,14 +2524,26 @@
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="4"/>
-        <v>8.6736173798840355E-17</v>
-      </c>
-      <c r="H47" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5.0000000000000868E-3</v>
+      </c>
+      <c r="H47">
+        <f ca="1"/>
+        <v>2.194589905364305E-2</v>
+      </c>
+      <c r="I47">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H47,B47+$C$5*$C$2)</f>
+        <v>9.6972123704809385E-2</v>
+      </c>
+      <c r="K47">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <f ca="1"/>
+        <v>8.9146378017318284E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48">
         <f t="shared" ca="1" si="0"/>
         <v>1.0000000000000087E-2</v>
@@ -1233,7 +2554,7 @@
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="3"/>
@@ -1241,14 +2562,26 @@
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="4"/>
-        <v>1.0000000000000087E-2</v>
-      </c>
-      <c r="H48" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1.5000000000000086E-2</v>
+      </c>
+      <c r="H48">
+        <f ca="1"/>
+        <v>2.7822550189487101E-2</v>
+      </c>
+      <c r="I48">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H48,B48+$C$5*$C$2)</f>
+        <v>9.729327174971393E-2</v>
+      </c>
+      <c r="K48">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <f ca="1"/>
+        <v>8.6183848692509696E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49">
         <f t="shared" ca="1" si="0"/>
         <v>2.0000000000000087E-2</v>
@@ -1259,7 +2592,7 @@
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="3"/>
@@ -1267,14 +2600,26 @@
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="4"/>
-        <v>2.0000000000000087E-2</v>
-      </c>
-      <c r="H49" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.5000000000000088E-2</v>
+      </c>
+      <c r="H49">
+        <f ca="1"/>
+        <v>3.4521718026217042E-2</v>
+      </c>
+      <c r="I49">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H49,B49+$C$5*$C$2)</f>
+        <v>9.7903250060979177E-2</v>
+      </c>
+      <c r="K49">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <f ca="1"/>
+        <v>7.8319491366791685E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50">
         <f t="shared" ca="1" si="0"/>
         <v>3.0000000000000089E-2</v>
@@ -1285,7 +2630,7 @@
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="3"/>
@@ -1293,14 +2638,26 @@
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="4"/>
-        <v>3.0000000000000089E-2</v>
-      </c>
-      <c r="H50" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3.5000000000000087E-2</v>
+      </c>
+      <c r="H50">
+        <f ca="1"/>
+        <v>4.1950067334513765E-2</v>
+      </c>
+      <c r="I50">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H50,B50+$C$5*$C$2)</f>
+        <v>9.8754193248211539E-2</v>
+      </c>
+      <c r="K50">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <f ca="1"/>
+        <v>6.7516802681097277E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51">
         <f t="shared" ca="1" si="0"/>
         <v>4.0000000000000091E-2</v>
@@ -1311,7 +2668,7 @@
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="3"/>
@@ -1319,14 +2676,26 @@
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="4"/>
-        <v>4.0000000000000091E-2</v>
-      </c>
-      <c r="H51" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4.5000000000000089E-2</v>
+      </c>
+      <c r="H51">
+        <f ca="1"/>
+        <v>4.9994518398843779E-2</v>
+      </c>
+      <c r="I51">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H51,B51+$C$5*$C$2)</f>
+        <v>9.9796589439882386E-2</v>
+      </c>
+      <c r="K51">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <f ca="1"/>
+        <v>5.5703548045763912E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52">
         <f t="shared" ca="1" si="0"/>
         <v>5.0000000000000093E-2</v>
@@ -1337,7 +2706,7 @@
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="3"/>
@@ -1345,14 +2714,26 @@
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0000000000000093E-2</v>
-      </c>
-      <c r="H52" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5.500000000000009E-2</v>
+      </c>
+      <c r="H52">
+        <f ca="1"/>
+        <v>5.8539043756272301E-2</v>
+      </c>
+      <c r="I52">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H52,B52+$C$5*$C$2)</f>
+        <v>0.1009862926629746</v>
+      </c>
+      <c r="K52">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <f ca="1"/>
+        <v>4.4311309759639719E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53">
         <f t="shared" ca="1" si="0"/>
         <v>6.0000000000000095E-2</v>
@@ -1363,7 +2744,7 @@
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="3"/>
@@ -1371,14 +2752,26 @@
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="4"/>
-        <v>6.0000000000000095E-2</v>
-      </c>
-      <c r="H53" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6.5000000000000099E-2</v>
+      </c>
+      <c r="H53">
+        <f ca="1"/>
+        <v>6.7476082702651055E-2</v>
+      </c>
+      <c r="I53">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H53,B53+$C$5*$C$2)</f>
+        <v>0.10228677272275462</v>
+      </c>
+      <c r="K53">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <f ca="1"/>
+        <v>3.4191406678611112E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54">
         <f t="shared" ca="1" si="0"/>
         <v>7.000000000000009E-2</v>
@@ -1389,7 +2782,7 @@
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="3"/>
@@ -1397,16 +2790,28 @@
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="4"/>
-        <v>7.000000000000009E-2</v>
-      </c>
-      <c r="H54" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+        <v>7.5000000000000094E-2</v>
+      </c>
+      <c r="H54">
+        <f ca="1"/>
+        <v>7.6712649694740023E-2</v>
+      </c>
+      <c r="I54">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H54,B54+$C$5*$C$2)</f>
+        <v>0.10366898700870936</v>
+      </c>
+      <c r="K54">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <f ca="1"/>
+        <v>2.5714200238970999E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55">
-        <f t="shared" ref="B55:B72" ca="1" si="5">B54+$C$13</f>
+        <f t="shared" ref="B55:B72" ca="1" si="6">B54+$C$13</f>
         <v>8.0000000000000085E-2</v>
       </c>
       <c r="C55">
@@ -1415,7 +2820,7 @@
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="3"/>
@@ -1423,16 +2828,28 @@
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="4"/>
-        <v>8.0000000000000085E-2</v>
-      </c>
-      <c r="H55" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+        <v>8.5000000000000089E-2</v>
+      </c>
+      <c r="H55">
+        <f ca="1"/>
+        <v>8.6172393403518871E-2</v>
+      </c>
+      <c r="I55">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H55,B55+$C$5*$C$2)</f>
+        <v>0.10511034218336229</v>
+      </c>
+      <c r="K55">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <f ca="1"/>
+        <v>1.8921139453566126E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>9.000000000000008E-2</v>
       </c>
       <c r="C56">
@@ -1441,7 +2858,7 @@
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="3"/>
@@ -1449,16 +2866,28 @@
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="4"/>
-        <v>9.000000000000008E-2</v>
-      </c>
-      <c r="H56" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+        <v>9.5000000000000084E-2</v>
+      </c>
+      <c r="H56">
+        <f ca="1"/>
+        <v>9.5795063006277409E-2</v>
+      </c>
+      <c r="I56">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H56,B56+$C$5*$C$2)</f>
+        <v>0.10659346391408558</v>
+      </c>
+      <c r="K56">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <f ca="1"/>
+        <v>1.3664033382994743E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.10000000000000007</v>
       </c>
       <c r="C57">
@@ -1467,7 +2896,7 @@
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="3"/>
@@ -1475,16 +2904,28 @@
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10000000000000007</v>
-      </c>
-      <c r="H57" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.10500000000000008</v>
+      </c>
+      <c r="H57">
+        <f ca="1"/>
+        <v>0.10553459564054235</v>
+      </c>
+      <c r="I57">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H57,B57+$C$5*$C$2)</f>
+        <v>0.10810506801743036</v>
+      </c>
+      <c r="K57">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <f ca="1"/>
+        <v>9.7085631948411223E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.11000000000000007</v>
       </c>
       <c r="C58">
@@ -1493,7 +2934,7 @@
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="3"/>
@@ -1501,16 +2942,28 @@
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11000000000000007</v>
-      </c>
-      <c r="H58" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.11500000000000007</v>
+      </c>
+      <c r="H58">
+        <f ca="1"/>
+        <v>0.11535667566391765</v>
+      </c>
+      <c r="I58">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H58,B58+$C$5*$C$2)</f>
+        <v>0.10963502213688228</v>
+      </c>
+      <c r="K58">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <f ca="1"/>
+        <v>6.8008987901761794E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.12000000000000006</v>
       </c>
       <c r="C59">
@@ -1519,7 +2972,7 @@
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="3"/>
@@ -1527,16 +2980,28 @@
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12000000000000006</v>
-      </c>
-      <c r="H59" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.12500000000000006</v>
+      </c>
+      <c r="H59">
+        <f ca="1"/>
+        <v>0.125236284779637</v>
+      </c>
+      <c r="I59">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H59,B59+$C$5*$C$2)</f>
+        <v>0.11117560001082885</v>
+      </c>
+      <c r="K59">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <f ca="1"/>
+        <v>4.7048939292680132E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.13000000000000006</v>
       </c>
       <c r="C60">
@@ -1545,7 +3010,7 @@
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="3"/>
@@ -1553,16 +3018,28 @@
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13000000000000006</v>
-      </c>
-      <c r="H60" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.13500000000000006</v>
+      </c>
+      <c r="H60">
+        <f ca="1"/>
+        <v>0.13515551353511951</v>
+      </c>
+      <c r="I60">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H60,B60+$C$5*$C$2)</f>
+        <v>0.11272089762425745</v>
+      </c>
+      <c r="K60">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <f ca="1"/>
+        <v>3.2189922332748217E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.14000000000000007</v>
       </c>
       <c r="C61">
@@ -1571,7 +3048,7 @@
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="3"/>
@@ -1579,16 +3056,28 @@
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14000000000000007</v>
-      </c>
-      <c r="H61" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.14500000000000007</v>
+      </c>
+      <c r="H61">
+        <f ca="1"/>
+        <v>0.14510174097891082</v>
+      </c>
+      <c r="I61">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H61,B61+$C$5*$C$2)</f>
+        <v>0.1142663683900547</v>
+      </c>
+      <c r="K61">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <f ca="1"/>
+        <v>2.1806777329068097E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.15000000000000008</v>
       </c>
       <c r="C62">
@@ -1597,7 +3086,7 @@
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="3"/>
@@ -1605,16 +3094,28 @@
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15000000000000008</v>
-      </c>
-      <c r="H62" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.15500000000000008</v>
+      </c>
+      <c r="H62">
+        <f ca="1"/>
+        <v>0.15506619326803928</v>
+      </c>
+      <c r="I62">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H62,B62+$C$5*$C$2)</f>
+        <v>0.11580842332687763</v>
+      </c>
+      <c r="K62">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <f ca="1"/>
+        <v>1.4641818918544403E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.16000000000000009</v>
       </c>
       <c r="C63">
@@ -1623,7 +3124,7 @@
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="3"/>
@@ -1631,16 +3132,28 @@
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.16000000000000009</v>
-      </c>
-      <c r="H63" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.16500000000000009</v>
+      </c>
+      <c r="H63">
+        <f ca="1"/>
+        <v>0.16504284321918863</v>
+      </c>
+      <c r="I63">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H63,B63+$C$5*$C$2)</f>
+        <v>0.11734401369368236</v>
+      </c>
+      <c r="K63">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <f ca="1"/>
+        <v>9.7517394631637007E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.1700000000000001</v>
       </c>
       <c r="C64">
@@ -1649,7 +3162,7 @@
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="3"/>
@@ -1657,16 +3170,28 @@
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1700000000000001</v>
-      </c>
-      <c r="H64" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.1750000000000001</v>
+      </c>
+      <c r="H64">
+        <f ca="1"/>
+        <v>0.17502759363619014</v>
+      </c>
+      <c r="I64">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H64,B64+$C$5*$C$2)</f>
+        <v>0.11887003590287078</v>
+      </c>
+      <c r="K64">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <f ca="1"/>
+        <v>6.4463499265006343E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.1800000000000001</v>
       </c>
       <c r="C65">
@@ -1675,7 +3200,7 @@
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="3"/>
@@ -1683,16 +3208,28 @@
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1800000000000001</v>
-      </c>
-      <c r="H65" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.18500000000000011</v>
+      </c>
+      <c r="H65">
+        <f ca="1"/>
+        <v>0.1850176848677737</v>
+      </c>
+      <c r="I65">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H65,B65+$C$5*$C$2)</f>
+        <v>0.12038219808618458</v>
+      </c>
+      <c r="K65">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <f ca="1"/>
+        <v>4.2307143730523794E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.19000000000000011</v>
       </c>
       <c r="C66">
@@ -1701,7 +3238,7 @@
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="3"/>
@@ -1709,16 +3246,28 @@
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19000000000000011</v>
-      </c>
-      <c r="H66" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.19500000000000012</v>
+      </c>
+      <c r="H66">
+        <f ca="1"/>
+        <v>0.19501127296538073</v>
+      </c>
+      <c r="I66">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H66,B66+$C$5*$C$2)</f>
+        <v>0.12187247937727237</v>
+      </c>
+      <c r="K66">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <f ca="1"/>
+        <v>2.7557043356727485E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.20000000000000012</v>
       </c>
       <c r="C67">
@@ -1727,7 +3276,7 @@
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="3"/>
@@ -1735,16 +3284,28 @@
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20000000000000012</v>
-      </c>
-      <c r="H67" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.20500000000000013</v>
+      </c>
+      <c r="H67">
+        <f ca="1"/>
+        <v>0.20500713389188041</v>
+      </c>
+      <c r="I67">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H67,B67+$C$5*$C$2)</f>
+        <v>0.12332300647298129</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <f ca="1"/>
+        <v>1.7782672997708151E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.21000000000000013</v>
       </c>
       <c r="C68">
@@ -1753,7 +3314,7 @@
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="3"/>
@@ -1761,16 +3322,28 @@
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21000000000000013</v>
-      </c>
-      <c r="H68" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.21500000000000014</v>
+      </c>
+      <c r="H68">
+        <f ca="1"/>
+        <v>0.21500445866044449</v>
+      </c>
+      <c r="I68">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H68,B68+$C$5*$C$2)</f>
+        <v>0.12469079120412173</v>
+      </c>
+      <c r="K68">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <f ca="1"/>
+        <v>1.1307948697219589E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.22000000000000014</v>
       </c>
       <c r="C69">
@@ -1779,7 +3352,7 @@
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="3"/>
@@ -1787,16 +3360,28 @@
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22000000000000014</v>
-      </c>
-      <c r="H69" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.22500000000000014</v>
+      </c>
+      <c r="H69">
+        <f ca="1"/>
+        <v>0.22500271270179995</v>
+      </c>
+      <c r="I69">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H69,B69+$C$5*$C$2)</f>
+        <v>0.12591627079214818</v>
+      </c>
+      <c r="K69">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <f ca="1"/>
+        <v>6.9816372301885823E-5</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.23000000000000015</v>
       </c>
       <c r="C70">
@@ -1805,7 +3390,7 @@
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="3"/>
@@ -1813,16 +3398,28 @@
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="4"/>
-        <v>0.23000000000000015</v>
-      </c>
-      <c r="H70" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.23500000000000015</v>
+      </c>
+      <c r="H70">
+        <f ca="1"/>
+        <v>0.23500153966211862</v>
+      </c>
+      <c r="I70">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H70,B70+$C$5*$C$2)</f>
+        <v>0.12735507588372252</v>
+      </c>
+      <c r="K70">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <f ca="1"/>
+        <v>4.0081299345909806E-5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.24000000000000016</v>
       </c>
       <c r="C71">
@@ -1831,7 +3428,7 @@
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="3"/>
@@ -1839,16 +3436,28 @@
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24000000000000016</v>
-      </c>
-      <c r="H71" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.24500000000000016</v>
+      </c>
+      <c r="H71">
+        <f ca="1"/>
+        <v>0.24500069516729778</v>
+      </c>
+      <c r="I71">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H71,B71+$C$5*$C$2)</f>
+        <v>0.1290292694660693</v>
+      </c>
+      <c r="K71">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <f ca="1"/>
+        <v>1.8230416160677245E-5</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.25000000000000017</v>
       </c>
       <c r="C72">
@@ -1857,7 +3466,7 @@
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="3"/>
@@ -1865,14 +3474,27 @@
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25000000000000017</v>
-      </c>
-      <c r="H72" t="e">
-        <f ca="1"/>
-        <v>#NUM!</v>
+        <v>0.25500000000000017</v>
+      </c>
+      <c r="H72">
+        <f ca="1"/>
+        <v>0.25500000000000017</v>
+      </c>
+      <c r="I72">
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H72,B72+$C$5*$C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <f ca="1"/>
+        <v>8.5337804477576812E-5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>